--- a/ExcelTemplate/order/請求書_月間.xlsx
+++ b/ExcelTemplate/order/請求書_月間.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\deliba\ExcelTemplate\hoiku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\herokuspace\deliba\ExcelTemplate\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2CE73-25AB-4F67-B4BA-C5CCC55608DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1270FAFC-0DC3-4138-AB86-AFB7D3A8D597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,8 +765,41 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -774,71 +807,38 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,156 +1238,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="52" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="59"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="60"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="51" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="58" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="50"/>
-      <c r="J4" s="42">
+      <c r="J4" s="53">
         <f>ROUND(F4*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="49" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="50"/>
-      <c r="N4" s="42">
+      <c r="N4" s="53">
         <f>F4+J4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="Q4" s="65" t="s">
+      <c r="O4" s="54"/>
+      <c r="Q4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="52"/>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="49"/>
       <c r="E5" s="50"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="49"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="49"/>
       <c r="M5" s="50"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="55" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
     </row>
     <row r="7" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="56" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1395,23 +1395,23 @@
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
@@ -1465,7 +1465,7 @@
       <c r="Q9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="58"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
@@ -3112,6 +3112,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
@@ -3126,28 +3148,6 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="N4:O5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelTemplate/order/請求書_月間.xlsx
+++ b/ExcelTemplate/order/請求書_月間.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deliba\ExcelTemplate\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BF52FE-E948-48ED-938B-AAA1DE3EC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5423D5D6-2B27-4660-BC3F-31FDCFFAC17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -209,6 +209,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,8 +263,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -277,6 +286,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
@@ -286,51 +329,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -699,9 +709,7 @@
   </sheetPr>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -714,105 +722,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L1" s="22"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="22"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="AF1" s="6" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="AF1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="23"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="AF2" s="7" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="13"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="AF2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="10"/>
-      <c r="AF3" s="8" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="6"/>
+      <c r="AF3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -821,97 +827,97 @@
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="9">
         <v>6</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="9">
         <v>7</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="9">
         <v>8</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="9">
         <v>9</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="9">
         <v>10</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="9">
         <v>11</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="9">
         <v>12</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="9">
         <v>13</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="9">
         <v>14</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="9">
         <v>15</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="9">
         <v>16</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="9">
         <v>17</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="9">
         <v>18</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="9">
         <v>19</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="9">
         <v>20</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="9">
         <v>21</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="9">
         <v>22</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="9">
         <v>23</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="9">
         <v>24</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="9">
         <v>25</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="9">
         <v>26</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="9">
         <v>27</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AD6" s="9">
         <v>28</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="9">
         <v>29</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="9">
         <v>30</v>
       </c>
-      <c r="AG6" s="16">
+      <c r="AG6" s="9">
         <v>31</v>
       </c>
       <c r="AH6" s="5" t="s">
@@ -922,8 +928,8 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -955,18 +961,18 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="21" t="str">
+      <c r="AH7" s="12" t="str">
         <f>IF(SUM(C7:AG7)=0,"",SUM(C7:AG7))</f>
         <v/>
       </c>
-      <c r="AI7" s="21" t="str">
+      <c r="AI7" s="23" t="str">
         <f>IF(ISERR(B7*AH7),"",B7*AH7)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -998,18 +1004,18 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="21" t="str">
+      <c r="AH8" s="12" t="str">
         <f t="shared" ref="AH8:AH56" si="0">IF(SUM(C8:AG8)=0,"",SUM(C8:AG8))</f>
         <v/>
       </c>
-      <c r="AI8" s="21" t="str">
+      <c r="AI8" s="23" t="str">
         <f t="shared" ref="AI8:AI56" si="1">IF(ISERR(B8*AH8),"",B8*AH8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1041,18 +1047,18 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI9" s="21" t="str">
+      <c r="AH9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI9" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1084,18 +1090,18 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI10" s="21" t="str">
+      <c r="AH10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI10" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1127,18 +1133,18 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI11" s="21" t="str">
+      <c r="AH11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI11" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1170,18 +1176,18 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI12" s="21" t="str">
+      <c r="AH12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI12" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1213,18 +1219,18 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI13" s="21" t="str">
+      <c r="AH13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI13" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1256,18 +1262,18 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI14" s="21" t="str">
+      <c r="AH14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI14" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1299,18 +1305,18 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI15" s="21" t="str">
+      <c r="AH15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI15" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1342,18 +1348,18 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI16" s="21" t="str">
+      <c r="AH16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI16" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1385,18 +1391,18 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI17" s="21" t="str">
+      <c r="AH17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI17" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1428,18 +1434,18 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-      <c r="AH18" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI18" s="21" t="str">
+      <c r="AH18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI18" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1471,18 +1477,18 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI19" s="21" t="str">
+      <c r="AH19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI19" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1514,18 +1520,18 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI20" s="21" t="str">
+      <c r="AH20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI20" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1557,18 +1563,18 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI21" s="21" t="str">
+      <c r="AH21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI21" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1600,18 +1606,18 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI22" s="21" t="str">
+      <c r="AH22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI22" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1643,18 +1649,18 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI23" s="21" t="str">
+      <c r="AH23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI23" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1686,18 +1692,18 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI24" s="21" t="str">
+      <c r="AH24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI24" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1729,18 +1735,18 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI25" s="21" t="str">
+      <c r="AH25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI25" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1772,18 +1778,18 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI26" s="21" t="str">
+      <c r="AH26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI26" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1815,18 +1821,18 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
-      <c r="AH27" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI27" s="21" t="str">
+      <c r="AH27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI27" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1858,18 +1864,18 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
-      <c r="AH28" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI28" s="21" t="str">
+      <c r="AH28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI28" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1901,18 +1907,18 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI29" s="21" t="str">
+      <c r="AH29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI29" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1944,18 +1950,18 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
-      <c r="AH30" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI30" s="21" t="str">
+      <c r="AH30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI30" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1987,18 +1993,18 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
-      <c r="AH31" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI31" s="21" t="str">
+      <c r="AH31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI31" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2030,18 +2036,18 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
-      <c r="AH32" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI32" s="21" t="str">
+      <c r="AH32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI32" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2073,18 +2079,18 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI33" s="21" t="str">
+      <c r="AH33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI33" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2116,18 +2122,18 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
-      <c r="AH34" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI34" s="21" t="str">
+      <c r="AH34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI34" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2159,18 +2165,18 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
-      <c r="AH35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI35" s="21" t="str">
+      <c r="AH35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI35" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2202,18 +2208,18 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
-      <c r="AH36" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI36" s="21" t="str">
+      <c r="AH36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI36" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2245,18 +2251,18 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
-      <c r="AH37" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI37" s="21" t="str">
+      <c r="AH37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI37" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2288,18 +2294,18 @@
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
-      <c r="AH38" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI38" s="21" t="str">
+      <c r="AH38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI38" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2331,18 +2337,18 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
-      <c r="AH39" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI39" s="21" t="str">
+      <c r="AH39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI39" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2374,18 +2380,18 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
-      <c r="AH40" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI40" s="21" t="str">
+      <c r="AH40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI40" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2417,18 +2423,18 @@
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
-      <c r="AH41" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI41" s="21" t="str">
+      <c r="AH41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI41" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2460,18 +2466,18 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
-      <c r="AH42" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI42" s="21" t="str">
+      <c r="AH42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI42" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2503,18 +2509,18 @@
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
-      <c r="AH43" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI43" s="21" t="str">
+      <c r="AH43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI43" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2546,18 +2552,18 @@
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
-      <c r="AH44" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI44" s="21" t="str">
+      <c r="AH44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI44" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2589,18 +2595,18 @@
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
-      <c r="AH45" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI45" s="21" t="str">
+      <c r="AH45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI45" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2632,18 +2638,18 @@
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
-      <c r="AH46" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI46" s="21" t="str">
+      <c r="AH46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI46" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2675,18 +2681,18 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI47" s="21" t="str">
+      <c r="AH47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI47" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2718,18 +2724,18 @@
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
-      <c r="AH48" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI48" s="21" t="str">
+      <c r="AH48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI48" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2761,18 +2767,18 @@
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
-      <c r="AH49" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI49" s="21" t="str">
+      <c r="AH49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI49" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2804,18 +2810,18 @@
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
-      <c r="AH50" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI50" s="21" t="str">
+      <c r="AH50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI50" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2847,18 +2853,18 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
-      <c r="AH51" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI51" s="21" t="str">
+      <c r="AH51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI51" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2890,18 +2896,18 @@
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
-      <c r="AH52" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI52" s="21" t="str">
+      <c r="AH52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI52" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2933,18 +2939,18 @@
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
-      <c r="AH53" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI53" s="21" t="str">
+      <c r="AH53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI53" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2976,18 +2982,18 @@
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
-      <c r="AH54" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI54" s="21" t="str">
+      <c r="AH54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI54" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3019,18 +3025,18 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
-      <c r="AH55" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI55" s="21" t="str">
+      <c r="AH55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI55" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3062,11 +3068,11 @@
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
-      <c r="AH56" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI56" s="21" t="str">
+      <c r="AH56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI56" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/ExcelTemplate/order/請求書_月間.xlsx
+++ b/ExcelTemplate/order/請求書_月間.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deliba\ExcelTemplate\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5423D5D6-2B27-4660-BC3F-31FDCFFAC17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E07022-E190-4FB4-A0B1-0DB7CE29BDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
@@ -126,12 +126,48 @@
   <si>
     <t>2025年1月</t>
   </si>
+  <si>
+    <t>単位：円</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（税抜き計）</t>
+    <rPh sb="1" eb="3">
+      <t>ゼイヌ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（税抜き計＋消費税）</t>
+    <rPh sb="1" eb="3">
+      <t>ゼイヌ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -215,6 +251,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +351,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -335,7 +381,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,9 +756,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -722,103 +773,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
       <c r="U1" s="8"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
       <c r="R2" s="13"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="AF2" s="19" t="s">
+      <c r="AF2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="6"/>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AI5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -965,7 +1019,7 @@
         <f>IF(SUM(C7:AG7)=0,"",SUM(C7:AG7))</f>
         <v/>
       </c>
-      <c r="AI7" s="23" t="str">
+      <c r="AI7" s="14" t="str">
         <f>IF(ISERR(B7*AH7),"",B7*AH7)</f>
         <v/>
       </c>
@@ -1008,7 +1062,7 @@
         <f t="shared" ref="AH8:AH56" si="0">IF(SUM(C8:AG8)=0,"",SUM(C8:AG8))</f>
         <v/>
       </c>
-      <c r="AI8" s="23" t="str">
+      <c r="AI8" s="14" t="str">
         <f t="shared" ref="AI8:AI56" si="1">IF(ISERR(B8*AH8),"",B8*AH8)</f>
         <v/>
       </c>
@@ -1051,7 +1105,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI9" s="23" t="str">
+      <c r="AI9" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1094,7 +1148,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI10" s="23" t="str">
+      <c r="AI10" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1137,7 +1191,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI11" s="23" t="str">
+      <c r="AI11" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1180,7 +1234,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI12" s="23" t="str">
+      <c r="AI12" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1223,7 +1277,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI13" s="23" t="str">
+      <c r="AI13" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1266,7 +1320,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI14" s="23" t="str">
+      <c r="AI14" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1309,7 +1363,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI15" s="23" t="str">
+      <c r="AI15" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1352,7 +1406,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI16" s="23" t="str">
+      <c r="AI16" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1395,7 +1449,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI17" s="23" t="str">
+      <c r="AI17" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1438,7 +1492,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI18" s="23" t="str">
+      <c r="AI18" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1481,7 +1535,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI19" s="23" t="str">
+      <c r="AI19" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1524,7 +1578,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI20" s="23" t="str">
+      <c r="AI20" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1567,7 +1621,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI21" s="23" t="str">
+      <c r="AI21" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1610,7 +1664,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI22" s="23" t="str">
+      <c r="AI22" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1653,7 +1707,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI23" s="23" t="str">
+      <c r="AI23" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1696,7 +1750,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI24" s="23" t="str">
+      <c r="AI24" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1739,7 +1793,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI25" s="23" t="str">
+      <c r="AI25" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1782,7 +1836,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI26" s="23" t="str">
+      <c r="AI26" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1825,7 +1879,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI27" s="23" t="str">
+      <c r="AI27" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1868,7 +1922,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI28" s="23" t="str">
+      <c r="AI28" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1911,7 +1965,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI29" s="23" t="str">
+      <c r="AI29" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1954,7 +2008,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI30" s="23" t="str">
+      <c r="AI30" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1997,7 +2051,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI31" s="23" t="str">
+      <c r="AI31" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2040,7 +2094,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI32" s="23" t="str">
+      <c r="AI32" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2083,7 +2137,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI33" s="23" t="str">
+      <c r="AI33" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2126,7 +2180,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI34" s="23" t="str">
+      <c r="AI34" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2169,7 +2223,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI35" s="23" t="str">
+      <c r="AI35" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2212,7 +2266,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI36" s="23" t="str">
+      <c r="AI36" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2255,7 +2309,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI37" s="23" t="str">
+      <c r="AI37" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2298,7 +2352,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI38" s="23" t="str">
+      <c r="AI38" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2341,7 +2395,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI39" s="23" t="str">
+      <c r="AI39" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2384,7 +2438,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI40" s="23" t="str">
+      <c r="AI40" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2427,7 +2481,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI41" s="23" t="str">
+      <c r="AI41" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2470,7 +2524,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI42" s="23" t="str">
+      <c r="AI42" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2513,7 +2567,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI43" s="23" t="str">
+      <c r="AI43" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2556,7 +2610,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI44" s="23" t="str">
+      <c r="AI44" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2599,7 +2653,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI45" s="23" t="str">
+      <c r="AI45" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2642,7 +2696,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI46" s="23" t="str">
+      <c r="AI46" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2685,7 +2739,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI47" s="23" t="str">
+      <c r="AI47" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2728,7 +2782,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI48" s="23" t="str">
+      <c r="AI48" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2771,7 +2825,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI49" s="23" t="str">
+      <c r="AI49" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2814,7 +2868,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI50" s="23" t="str">
+      <c r="AI50" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2857,7 +2911,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI51" s="23" t="str">
+      <c r="AI51" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2900,7 +2954,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI52" s="23" t="str">
+      <c r="AI52" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2943,7 +2997,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI53" s="23" t="str">
+      <c r="AI53" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2986,7 +3040,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI54" s="23" t="str">
+      <c r="AI54" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3029,7 +3083,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI55" s="23" t="str">
+      <c r="AI55" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3072,13 +3126,39 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI56" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="AI56" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI57" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AH58" s="24">
+        <f>SUM(AI7:AI56)</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="24"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI60" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="AH61" s="24">
+        <f>AH58*1.08</f>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="AH58:AI58"/>
+    <mergeCell ref="AH61:AI61"/>
     <mergeCell ref="C5:AG5"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="A2:A3"/>
@@ -3088,7 +3168,7 @@
     <mergeCell ref="M1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>